--- a/report_khach_hang/Danh sách khách hàng LONG XUYÊN.xlsx
+++ b/report_khach_hang/Danh sách khách hàng LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,10 +485,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0762865707</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -504,11 +502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,8 +517,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0787197424</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -536,11 +536,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -570,11 +570,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -604,11 +604,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -672,11 +672,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,10 +755,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0582038580</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -774,11 +772,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +789,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -808,11 +806,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -825,7 +823,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -842,11 +840,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -859,7 +857,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -876,11 +874,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -893,7 +891,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -910,11 +908,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -927,7 +925,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -944,11 +942,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -961,7 +959,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -978,11 +976,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -995,7 +993,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1012,11 +1010,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1029,7 +1027,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1046,11 +1044,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1063,7 +1061,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1080,11 +1078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1095,8 +1093,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0916250690</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1127,8 +1127,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0985568838</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1144,11 +1146,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1159,8 +1161,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0949439889</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1176,11 +1180,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1191,8 +1195,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0945832211</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1208,11 +1214,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1223,8 +1229,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0396237229</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1240,11 +1248,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1255,8 +1263,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0964414150</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1272,11 +1282,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1287,8 +1297,10 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1304,11 +1316,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1336,11 +1348,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1368,11 +1380,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1400,11 +1412,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1432,11 +1444,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1464,11 +1476,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1496,11 +1508,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1528,11 +1540,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1560,11 +1572,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1592,11 +1604,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1624,11 +1636,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1656,11 +1668,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1688,11 +1700,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1720,11 +1732,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1752,11 +1764,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1784,11 +1796,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1816,11 +1828,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1848,28 +1860,252 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>75</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>em Hợp</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v/>
+      </c>
+      <c r="F44" t="n">
+        <v/>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+      <c r="H44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>74</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>em Hoa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v/>
+      </c>
+      <c r="F45" t="n">
+        <v/>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+      <c r="H45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>73</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chị Xuyến</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v/>
+      </c>
+      <c r="F46" t="n">
+        <v/>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+      <c r="H46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>72</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>em Nhi</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v/>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+      <c r="H47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>71</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Chị Loan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v/>
+      </c>
+      <c r="F48" t="n">
+        <v/>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+      <c r="H48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>70</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cô Trang</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v/>
+      </c>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+      <c r="H49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>69</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v/>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+      <c r="H50" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>68</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v/>
-      </c>
-      <c r="F44" t="n">
-        <v/>
-      </c>
-      <c r="G44" t="n">
-        <v/>
-      </c>
-      <c r="H44" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v/>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+      <c r="H51" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng LONG XUYÊN.xlsx
+++ b/report_khach_hang/Danh sách khách hàng LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,10 +517,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -536,11 +534,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +551,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -570,11 +568,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -604,11 +602,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +619,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -638,11 +636,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -672,11 +670,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +687,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -706,11 +704,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +721,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -740,11 +738,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,8 +753,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -772,11 +772,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -787,10 +787,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0855677756</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -806,11 +804,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -823,7 +821,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -840,11 +838,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -857,7 +855,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -874,11 +872,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -891,7 +889,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -908,11 +906,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -925,7 +923,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -942,11 +940,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -959,7 +957,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -976,11 +974,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -993,7 +991,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1010,11 +1008,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1027,7 +1025,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1044,11 +1042,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,7 +1059,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1078,11 +1076,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1095,7 +1093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1112,11 +1110,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1129,7 +1127,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1146,11 +1144,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1163,7 +1161,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1180,11 +1178,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1197,7 +1195,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1214,11 +1212,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1231,7 +1229,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1248,11 +1246,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1265,7 +1263,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1282,11 +1280,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1299,7 +1297,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1316,11 +1314,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1331,8 +1329,10 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="n">
-        <v/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1348,11 +1348,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1380,11 +1380,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1412,11 +1412,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1444,11 +1444,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1476,11 +1476,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1508,11 +1508,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1572,11 +1572,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1636,11 +1636,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1668,11 +1668,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1700,11 +1700,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1732,11 +1732,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1764,11 +1764,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1796,11 +1796,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1828,11 +1828,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1860,11 +1860,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1892,11 +1892,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1924,11 +1924,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1988,11 +1988,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2020,11 +2020,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2052,11 +2052,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2084,28 +2084,60 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>69</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v/>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>68</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v/>
-      </c>
-      <c r="F51" t="n">
-        <v/>
-      </c>
-      <c r="G51" t="n">
-        <v/>
-      </c>
-      <c r="H51" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v/>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+      <c r="H52" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng LONG XUYÊN.xlsx
+++ b/report_khach_hang/Danh sách khách hàng LONG XUYÊN.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,8 +485,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0912239800</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -502,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,11 +536,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,10 +551,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -568,11 +568,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -602,11 +602,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -738,11 +738,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -772,11 +772,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -787,8 +787,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -804,11 +806,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -819,10 +821,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0855677756</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -974,11 +974,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1008,11 +1008,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1042,11 +1042,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1076,11 +1076,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1110,11 +1110,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1144,11 +1144,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1178,11 +1178,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1212,11 +1212,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1280,11 +1280,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1314,11 +1314,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1348,11 +1348,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1363,8 +1363,10 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1380,11 +1382,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1412,11 +1414,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1444,11 +1446,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1476,11 +1478,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1508,11 +1510,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1540,11 +1542,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1572,11 +1574,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1604,11 +1606,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1636,11 +1638,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1668,11 +1670,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1700,11 +1702,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1732,11 +1734,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1764,11 +1766,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1796,11 +1798,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1828,11 +1830,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1860,11 +1862,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1892,11 +1894,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1924,11 +1926,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1956,11 +1958,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1988,11 +1990,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2020,11 +2022,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2052,11 +2054,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2084,11 +2086,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2116,28 +2118,60 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>69</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Em Kim</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v/>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+      <c r="H52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>68</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Trúc Thanh</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v/>
-      </c>
-      <c r="F52" t="n">
-        <v/>
-      </c>
-      <c r="G52" t="n">
-        <v/>
-      </c>
-      <c r="H52" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v/>
+      </c>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+      <c r="G53" t="n">
+        <v/>
+      </c>
+      <c r="H53" t="n">
         <v/>
       </c>
     </row>
